--- a/data/income_statement/1digit/size/A_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/A_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>A-Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>A-Agriculture, forestry and fishing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>850854.1379300001</v>
+        <v>968106.12086</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>990360.90633</v>
+        <v>1127647.27304</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1021602.77632</v>
+        <v>1201301.08967</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1052564.66624</v>
+        <v>1287096.44943</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1088364.54039</v>
+        <v>1349926.43694</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>996134.8875</v>
+        <v>1275265.63134</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1151553.49472</v>
+        <v>1506685.48703</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1056343.24582</v>
+        <v>1472768.15356</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1067036.51286</v>
+        <v>1512303.43255</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2886730.00465</v>
+        <v>3616816.05242</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3326784.71259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4298019.73458</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4429571.228</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>795625.2316199999</v>
+        <v>904675.6524400002</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>950169.92002</v>
+        <v>1079598.339</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>984255.16221</v>
+        <v>1153679.7862</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>987929.8602699998</v>
+        <v>1209352.91985</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1031117.16825</v>
+        <v>1273015.81615</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>946276.79659</v>
+        <v>1204045.87205</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1103551.08193</v>
+        <v>1436475.78763</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>991836.9086000002</v>
+        <v>1377832.17808</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>998650.5103400002</v>
+        <v>1412676.6248</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2695125.50607</v>
+        <v>3374696.83446</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3101974.248369999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4016200.50191</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4091951.435</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>37664.31427</v>
+        <v>38381.95109</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>19997.80683</v>
+        <v>20789.85686</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>14505.07042</v>
+        <v>16026.50264</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>38201.6974</v>
+        <v>39092.59728999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>27345.54121</v>
+        <v>30587.62541</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>20931.93389</v>
+        <v>25578.9744</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>19875.36449</v>
+        <v>23231.25634</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>37946.76014</v>
+        <v>42140.84959</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>21883.0011</v>
+        <v>28934.69493000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>98128.02184999996</v>
+        <v>109545.42898</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>124377.34608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>138683.69487</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>196107.019</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>17564.59204</v>
+        <v>25048.51733</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>20193.17948</v>
+        <v>27259.07718</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>22842.54369</v>
+        <v>31594.80083</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>26433.10856999999</v>
+        <v>38650.93228999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>29901.83093</v>
+        <v>46322.99538</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>28926.15702</v>
+        <v>45640.78489000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>28127.0483</v>
+        <v>46978.44306</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>26559.57708</v>
+        <v>52795.12589</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>46503.00142</v>
+        <v>70692.11282000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>93476.47673000001</v>
+        <v>132573.78898</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>100433.11814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>143135.5378</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>141512.774</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2815.15179</v>
+        <v>4008.1662</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3249.06766</v>
+        <v>4317.19253</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3083.65469</v>
+        <v>4507.33845</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2350.302990000001</v>
+        <v>9070.501479999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6439.47282</v>
+        <v>9702.399550000002</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1885.43261</v>
+        <v>3136.24386</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2501.61372</v>
+        <v>4086.505659999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2605.973320000001</v>
+        <v>4643.23385</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1944.06239</v>
+        <v>3075.58762</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6465.90505</v>
+        <v>11236.07855</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8299.021349999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12599.22499</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>33921.799</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2114.7025</v>
+        <v>3042.56667</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2169.70657</v>
+        <v>2765.70364</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2216.80297</v>
+        <v>3616.548140000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1737.0854</v>
+        <v>7226.890249999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5632.80691</v>
+        <v>8536.044089999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1694.99128</v>
+        <v>2731.09187</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2445.92605</v>
+        <v>3841.93369</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1353.00068</v>
+        <v>3158.965189999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1297.5788</v>
+        <v>2349.08731</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5200.705110000001</v>
+        <v>8380.637659999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>7068.39057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10512.07943</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>30803.892</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>439.51435</v>
+        <v>463.82494</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>829.9507199999999</v>
+        <v>1146.06887</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>392.3394</v>
+        <v>398.7535</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>131.55726</v>
+        <v>201.51163</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>93.12802000000001</v>
+        <v>312.27482</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>49.27746</v>
+        <v>242.84538</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>41.94263</v>
+        <v>122.00286</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>267.55451</v>
+        <v>468.29903</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>75.28103</v>
+        <v>146.91894</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>766.7941</v>
+        <v>1758.84879</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>799.30259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>942.36236</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1506.094</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>260.93494</v>
+        <v>501.77459</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>249.41037</v>
+        <v>405.42002</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>474.5123199999999</v>
+        <v>492.0368099999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>481.6603300000001</v>
+        <v>1642.0996</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>713.5378900000001</v>
+        <v>854.0806400000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>141.16387</v>
+        <v>162.3066099999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>13.74504</v>
+        <v>122.56911</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>985.4181300000001</v>
+        <v>1015.96963</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>571.2025600000001</v>
+        <v>579.5813700000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>498.40584</v>
+        <v>1096.5921</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>431.32819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1144.7832</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1611.813</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>848038.9861400001</v>
+        <v>964097.9546599999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>987111.8386699999</v>
+        <v>1123330.08051</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1018519.12163</v>
+        <v>1196793.75122</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1050214.36325</v>
+        <v>1278025.94795</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1081925.06757</v>
+        <v>1340224.03739</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>994249.4548899999</v>
+        <v>1272129.38748</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1149051.881</v>
+        <v>1502598.98137</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1053737.2725</v>
+        <v>1468124.91971</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1065092.45047</v>
+        <v>1509227.84493</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2880264.0996</v>
+        <v>3605579.973869999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3318485.69124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4285420.50959</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4395649.429</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>721853.2688699999</v>
+        <v>816841.5317100001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>847932.7111300002</v>
+        <v>957652.08413</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>872443.5422800001</v>
+        <v>1023500.37645</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>907480.48594</v>
+        <v>1097812.49679</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>917889.4952800001</v>
+        <v>1125313.44772</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>838480.3796600001</v>
+        <v>1056869.68305</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>993857.7560000001</v>
+        <v>1278236.84812</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>893930.8411800001</v>
+        <v>1223472.42868</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>879035.4486200003</v>
+        <v>1233659.92439</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2437972.13842</v>
+        <v>3033165.6592</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2875609.5216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3693300.52638</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3711947.333</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>187493.99492</v>
+        <v>235432.77081</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>217262.15352</v>
+        <v>272895.86451</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>202140.54429</v>
+        <v>281777.8852</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>188996.69412</v>
+        <v>296623.04001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>201305.16536</v>
+        <v>314312.18096</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>208253.9477</v>
+        <v>318406.41091</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>176138.49165</v>
+        <v>319391.2961799999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>180534.32295</v>
+        <v>337861.494</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>153658.54409</v>
+        <v>325724.9204600001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>709084.7358700001</v>
+        <v>1071389.55093</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>716510.86208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1205761.38667</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1265963.444</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>456771.52696</v>
+        <v>492805.3178</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>534263.8335900001</v>
+        <v>573965.3907099999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>541975.2444399999</v>
+        <v>595971.8215399999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>558228.0975200001</v>
+        <v>615210.45334</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>565278.27197</v>
+        <v>626506.8897099999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>481023.0719</v>
+        <v>546131.92859</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>661944.9899399999</v>
+        <v>743505.00708</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>504770.3519299999</v>
+        <v>604304.6301599998</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>482409.5845199999</v>
+        <v>584381.6605799999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1326595.34592</v>
+        <v>1488254.34413</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1667502.42066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1871084.13834</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1778266.61</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>73413.31320999999</v>
+        <v>83225.51186</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>92846.62290999999</v>
+        <v>105754.90085</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>126004.05086</v>
+        <v>141629.90427</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>156464.10416</v>
+        <v>179469.22161</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>145511.10559</v>
+        <v>174704.7672</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>142431.20835</v>
+        <v>180673.88658</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>149013.99329</v>
+        <v>204231.25351</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>197744.06699</v>
+        <v>261837.6825</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>234881.36251</v>
+        <v>311025.12648</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>384713.1753700001</v>
+        <v>445440.63157</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>468119.21832</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>578137.929</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>633698.52</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4174.433779999999</v>
+        <v>5377.93124</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3560.10111</v>
+        <v>5035.928059999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2323.70269</v>
+        <v>4120.765439999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3791.59014</v>
+        <v>6509.78183</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5794.95236</v>
+        <v>9789.609850000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6772.15171</v>
+        <v>11657.45697</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>6760.281120000001</v>
+        <v>11109.29135</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>10882.09931</v>
+        <v>19468.62202</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8085.9575</v>
+        <v>12528.21687</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>17578.88126</v>
+        <v>28081.13257</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>23477.02053999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38317.07236999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>34018.759</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>126185.71727</v>
+        <v>147256.42295</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>139179.12754</v>
+        <v>165677.99638</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>146075.57935</v>
+        <v>173293.37477</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>142733.87731</v>
+        <v>180213.45116</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>164035.57229</v>
+        <v>214910.58967</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>155769.07523</v>
+        <v>215259.70443</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>155194.125</v>
+        <v>224362.13325</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>159806.43132</v>
+        <v>244652.49103</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>186057.00185</v>
+        <v>275567.92054</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>442291.96118</v>
+        <v>572414.3146699999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>442876.16964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>592119.98321</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>683702.096</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>126627.00499</v>
+        <v>160095.33569</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>144384.2332599999</v>
+        <v>187251.78411</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>152710.78622</v>
+        <v>215552.23619</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>160224.97525</v>
+        <v>239930.09538</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>176705.76867</v>
+        <v>265670.61949</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>163250.17605</v>
+        <v>268813.72552</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>172748.88666</v>
+        <v>295255.4270600001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>195572.70019</v>
+        <v>338893.34913</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>211516.50741</v>
+        <v>362818.46993</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>472265.22617</v>
+        <v>648557.46869</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>487105.98579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>706813.6483400001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>808211.0550000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>968.47021</v>
+        <v>1349.21494</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1077.17508</v>
+        <v>1721.94266</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1086.04448</v>
+        <v>1957.43088</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1261.87797</v>
+        <v>1536.75896</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1786.37857</v>
+        <v>2690.95717</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1062.44648</v>
+        <v>1739.15539</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1366.36496</v>
+        <v>1800.16977</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>695.9296400000001</v>
+        <v>1008.73921</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>416.92754</v>
+        <v>1816.57845</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2587.9213</v>
+        <v>3009.40533</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2791.18347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3846.63185</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2897.192</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>21386.90054</v>
+        <v>26045.49328</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>22381.68914</v>
+        <v>27151.94127</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>24794.88939</v>
+        <v>31740.35764</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>22734.83156999999</v>
+        <v>29616.85598</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>24599.31873</v>
+        <v>33033.98411</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>18458.44338</v>
+        <v>28013.66937</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>18610.3187</v>
+        <v>28817.71878</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>25084.25938</v>
+        <v>37513.61935</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>24060.76967999999</v>
+        <v>37688.78937999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>62395.24199999999</v>
+        <v>77902.08453000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>70601.33870000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>93113.26516999998</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>94919.666</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>104271.63424</v>
+        <v>132700.62747</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>120925.36904</v>
+        <v>158377.90018</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>126829.85235</v>
+        <v>181854.44767</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>136228.26571</v>
+        <v>208776.48044</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>150320.07137</v>
+        <v>229945.67821</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>143729.28619</v>
+        <v>239060.90076</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>152772.203</v>
+        <v>264637.53851</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>169792.51117</v>
+        <v>300370.99057</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>187038.81019</v>
+        <v>323313.1021</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>407282.06287</v>
+        <v>567645.97883</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>413713.4636199999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>609853.75132</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>710394.197</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-441.2877200000001</v>
+        <v>-12838.91274</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-5205.10572</v>
+        <v>-21573.78773</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-6635.20687</v>
+        <v>-42258.86141999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-17491.09794</v>
+        <v>-59716.64422000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-12670.19638</v>
+        <v>-50760.02982</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-7481.100820000001</v>
+        <v>-53554.02108999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-17554.76166</v>
+        <v>-70893.29381</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-35766.26887000001</v>
+        <v>-94240.85810000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-25459.50556</v>
+        <v>-87250.54939</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-29973.26499</v>
+        <v>-76143.15402</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-44229.81615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-114693.66513</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-124508.959</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>8744.912390000001</v>
+        <v>22447.43615</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8792.154640000001</v>
+        <v>24498.5312</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>8933.053970000001</v>
+        <v>38833.30816</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9816.525559999998</v>
+        <v>29059.82692</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9339.76995</v>
+        <v>36025.55693999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>10619.45756</v>
+        <v>45697.13658999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>13159.34034</v>
+        <v>74309.21804000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11314.8999</v>
+        <v>78281.99704999998</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>37865.25439999999</v>
+        <v>115690.24444</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>49230.27888000001</v>
+        <v>284556.60754</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>37851.84752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>317474.50637</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>227456.875</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>8.049059999999999</v>
+        <v>1912.04906</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>46.21978</v>
+        <v>3853.84807</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>26.48428</v>
+        <v>2918.74024</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>97.34061000000001</v>
+        <v>5021.1149</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>30.82652</v>
+        <v>4794.040799999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>62.39356</v>
+        <v>10612.11623</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>172.03382</v>
+        <v>14561.74669</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>6.31624</v>
+        <v>13808.51409</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6.028950000000001</v>
+        <v>13717.94779</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>155.89767</v>
+        <v>22003.80299</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>256.11054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>134357.61134</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>31177.998</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>10.99572</v>
@@ -1817,256 +1833,286 @@
         <v>78.25123000000001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>8.480649999999999</v>
+        <v>8.78065</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>61.66925999999999</v>
+        <v>79.28645999999999</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>105.22294</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>97.58282000000001</v>
+        <v>10932.93452</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>181.64555</v>
+        <v>7370.555249999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>863.7370500000001</v>
+        <v>4356.36705</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>292.4262</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2.82035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>9323.4575</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>13174.988</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>805.1649900000001</v>
+        <v>2828.56313</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>555.8323500000001</v>
+        <v>3146.25122</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>789.0686300000002</v>
+        <v>5150.610320000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1006.0371</v>
+        <v>3979.40847</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>652.0347</v>
+        <v>4918.440020000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>867.97732</v>
+        <v>5376.096649999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1011.71579</v>
+        <v>6233.60961</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1331.94401</v>
+        <v>7655.22948</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1065.87543</v>
+        <v>14932.00003</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>6479.318560000001</v>
+        <v>28974.43251999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6788.19947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>32065.03095</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>20377.666</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>310.78507</v>
+        <v>360.28835</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>296.03334</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>235.17511</v>
+        <v>275.18625</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>315.67539</v>
+        <v>945.0194299999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>297.54814</v>
+        <v>643.0851199999998</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>325.45576</v>
+        <v>328.01874</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>364.24101</v>
+        <v>753.02467</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>231.24721</v>
+        <v>270.43828</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>415.32279</v>
+        <v>420.7282</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>476.66321</v>
+        <v>480.10137</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>476.31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>477.05906</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>249.616</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1109.65466</v>
+        <v>1121.13742</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>615.26932</v>
+        <v>616.7350900000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>765.68259</v>
+        <v>835.3115499999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>419.20519</v>
+        <v>1510.85148</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>210.32206</v>
+        <v>2769.19756</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>118.21639</v>
+        <v>1985.24645</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>71.721</v>
+        <v>2676.25805</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>54.75678</v>
+        <v>2883.95094</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>332.19676</v>
+        <v>1314.87412</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1892.3806</v>
+        <v>5193.72226</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2102.87775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5642.59907</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4059.314</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>26.77056</v>
+        <v>389.9028300000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>14.32567</v>
+        <v>57.87559</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>147.41973</v>
+        <v>256.16437</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>103.9869</v>
+        <v>220.76645</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>184.51892</v>
+        <v>1167.79124</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>47.24013</v>
+        <v>196.41603</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>220.57505</v>
+        <v>995.4880899999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>33.67564</v>
+        <v>1311.22893</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>295.29974</v>
+        <v>1448.75308</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>663.3247700000001</v>
+        <v>2222.75916</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>872.7333899999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4287.829100000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3469.783</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>598.0070599999999</v>
+        <v>3934.05156</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>464.4796999999999</v>
+        <v>4855.69618</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>953.96903</v>
+        <v>16007.11972</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>553.498</v>
+        <v>3301.210909999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>956.6081899999999</v>
+        <v>6343.04189</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1041.11306</v>
+        <v>5218.245129999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1406.10853</v>
+        <v>15098.84513</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1050.08514</v>
+        <v>18285.87427</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1456.55924</v>
+        <v>19703.99948</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>19044.32849000001</v>
+        <v>177681.3631</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9131.89791</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>77938.67986</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>93976.06299999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>1.02674</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>0.7277400000000001</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>46.27425</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0</v>
+        <v>51.13281</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0.84</v>
+        <v>6.51363</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>15.67988</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>81.91874</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>65.03456</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>14.76625</v>
+        <v>22.32455</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>4.41971</v>
@@ -2074,29 +2120,34 @@
       <c r="M33" s="48" t="n">
         <v>1.16656</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1.515</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1.04829</v>
+        <v>3.48884</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>22.34449</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>19.30805</v>
+        <v>54.19635</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>4.19745</v>
+        <v>17.93863</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>42.18817</v>
+        <v>57.02112</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>9.15109</v>
+        <v>24.84112</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>17.15547</v>
@@ -2113,308 +2164,348 @@
       <c r="M34" s="48" t="n">
         <v>2.33065</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>120.476</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5874.436980000001</v>
+        <v>11885.9325</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6748.394989999999</v>
+        <v>11619.76448</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5871.421069999999</v>
+        <v>13211.45388</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>7308.10427</v>
+        <v>14003.60319</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6903.213989999999</v>
+        <v>15247.1391</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>8027.00743</v>
+        <v>21835.25342</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9798.20685</v>
+        <v>22958.23707</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>8425.22933</v>
+        <v>26631.17125</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>33415.46819</v>
+        <v>59773.25014</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>20201.61729000001</v>
+        <v>47683.67785</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>18217.4009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>53378.74227999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>60849.456</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3386.11241</v>
+        <v>8044.82869</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2590.48033</v>
+        <v>8191.98387</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5286.353929999998</v>
+        <v>23533.07759</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2986.1795</v>
+        <v>7348.408729999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4483.39938</v>
+        <v>18071.99000000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4868.63456</v>
+        <v>17497.49305</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6976.67521</v>
+        <v>20593.81805</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3498.73592</v>
+        <v>20513.40242</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>5389.791010000001</v>
+        <v>30825.24844</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>25413.88292</v>
+        <v>163255.18618</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>23047.36440999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>86325.80287</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>133810.395</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>253.97071</v>
+        <v>315.26785</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>210.17125</v>
+        <v>344.16587</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>225.23863</v>
+        <v>376.65861</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>196.14224</v>
+        <v>316.39237</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>123.86527</v>
+        <v>488.77145</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>171.94793</v>
+        <v>332.52239</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>225.99573</v>
+        <v>358.24713</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>139.25396</v>
+        <v>454.58864</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>151.31781</v>
+        <v>358.69872</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>461.34712</v>
+        <v>827.6275499999998</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1106.9456</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1317.98952</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>954.759</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>787.08042</v>
+        <v>1013.68917</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>199.70665</v>
+        <v>295.1892</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2068.28355</v>
+        <v>2196.0145</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>740.4476699999999</v>
+        <v>1127.07579</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>289.01944</v>
+        <v>454.4849</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1181.67832</v>
+        <v>1318.25688</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>756.91412</v>
+        <v>1302.37524</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>132.30109</v>
+        <v>1500.23003</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>104.05911</v>
+        <v>3060.07015</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2436.47511</v>
+        <v>7104.339019999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2280.7084</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2485.44037</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2352.379</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0</v>
+        <v>179.89681</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>7.17151</v>
+        <v>12.05076</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>6.36706</v>
+        <v>7.063460000000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>68.76374</v>
+        <v>300.96994</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>35.68608</v>
+        <v>2404.7763</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>54.15642</v>
+        <v>66.32707000000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>8.22052</v>
+        <v>15.18146</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1.09653</v>
+        <v>796.7931</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>303.47756</v>
+        <v>571.70493</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>155.34211</v>
+        <v>929.41965</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>28.73079</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2271.30244</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>139.998</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>685.8685999999999</v>
+        <v>2956.20692</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>515.97402</v>
+        <v>4816.68165</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>653.2770400000001</v>
+        <v>17078.61014</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>611.18063</v>
+        <v>2608.363509999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1476.20937</v>
+        <v>6227.082020000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>929.36478</v>
+        <v>3397.64361</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1643.0893</v>
+        <v>11055.72453</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1085.85657</v>
+        <v>12872.71214</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1293.16857</v>
+        <v>18687.17828</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>17101.65416</v>
+        <v>141466.37914</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>15476.17362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>71540.99546999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>108570.378</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.75382</v>
+        <v>5.83188</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2.64536</v>
+        <v>8.16818</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>30.6719</v>
+        <v>36.09124000000001</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>44.43922999999999</v>
+        <v>71.45573999999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>18.43634</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>18.0989</v>
+        <v>18.72045</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>15.49198</v>
+        <v>78.94013</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>55.70500999999999</v>
+        <v>101.0174</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>55.04100999999999</v>
+        <v>127.23972</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>276.20273</v>
+        <v>449.98148</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>144.56967</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>239.777</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.6</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>0.63</v>
+        <v>13.34187</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>7.29561</v>
+        <v>18.21331</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>0</v>
+        <v>6.08455</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0</v>
+        <v>397.27326</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>1.08169</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>18.06487</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1651.83886</v>
+        <v>3567.33606</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1654.18154</v>
+        <v>2702.38634</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2295.220139999999</v>
+        <v>3820.42633</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1325.20599</v>
+        <v>2918.06683</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2558.61922</v>
+        <v>8081.16573</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2513.38821</v>
+        <v>12364.02265</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4326.963559999999</v>
+        <v>7782.26787</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2084.52276</v>
+        <v>4769.996239999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3482.72695</v>
+        <v>8020.35664</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4982.861690000001</v>
+        <v>12477.43934</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4010.236330000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8565.5054</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>21553.104</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7720.21991</v>
+        <v>14181.94014</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6529.569199999999</v>
+        <v>12869.95871</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>6182.633529999999</v>
+        <v>18733.94341</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>6805.76666</v>
+        <v>22054.19912</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7236.802860000001</v>
+        <v>23630.09376</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8235.694730000001</v>
+        <v>28174.80085</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>7546.921170000001</v>
+        <v>32448.24252000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8996.83502</v>
+        <v>46091.31678</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9952.714669999998</v>
+        <v>50264.51425</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>48380.27243</v>
+        <v>109160.30756</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>45456.16760999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>107352.99748</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>136873.937</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>6893.723</v>
+        <v>12801.39199</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6155.348869999999</v>
+        <v>11821.40852</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5466.408329999999</v>
+        <v>17052.34377</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6122.276049999999</v>
+        <v>19897.03160000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>6578.41444</v>
+        <v>21184.32649</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>7440.021249999998</v>
+        <v>25888.68835</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6741.54745</v>
+        <v>29774.85843</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8048.93023</v>
+        <v>42709.10512000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>8703.45919</v>
+        <v>46447.84207</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>45060.94577999999</v>
+        <v>99883.97340999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>41260.53693</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>97537.50898999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>127532.385</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>826.4969100000001</v>
+        <v>1380.54815</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>374.22033</v>
+        <v>1048.55019</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>716.2252</v>
+        <v>1681.59964</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>683.4906099999999</v>
+        <v>2157.16752</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>658.3884199999999</v>
+        <v>2445.767269999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>795.6734799999999</v>
+        <v>2286.1125</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>805.3737199999999</v>
+        <v>2673.38409</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>947.9047900000002</v>
+        <v>3382.21166</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1249.25548</v>
+        <v>3816.67218</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3319.32665</v>
+        <v>9276.334149999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4195.630679999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>9815.488490000002</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>9341.552</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-2802.70765</v>
+        <v>-12618.24542</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-5533.000609999999</v>
+        <v>-18137.19911</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-9171.140360000001</v>
+        <v>-45692.57426</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-17466.51853999999</v>
+        <v>-60059.42515</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-15050.62867</v>
+        <v>-56436.55664000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-9965.972549999999</v>
+        <v>-53529.1784</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-18919.0177</v>
+        <v>-49626.13634</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-36946.93990999999</v>
+        <v>-82563.58025</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2936.75684</v>
+        <v>-52650.06764000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-54537.14145999999</v>
+        <v>-64002.04022</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-74881.50064999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>9102.040890000018</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-167736.416</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>6314.089820000001</v>
+        <v>19524.31966</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>8184.575269999999</v>
+        <v>36961.88630000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8643.77793</v>
+        <v>18129.10702</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7999.38916</v>
+        <v>39392.55064</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9186.046279999999</v>
+        <v>33225.91878</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>13432.92535</v>
+        <v>35129.48358000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10855.41003</v>
+        <v>43824.19062</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>10434.33924</v>
+        <v>61711.82233</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>11403.42338</v>
+        <v>133277.76097</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>33090.40514</v>
+        <v>68596.96036999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>38836.82139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>93559.73999000002</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>124268.476</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>77.3172</v>
+        <v>568.56531</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>12.29919</v>
+        <v>253.16636</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>681.29707</v>
+        <v>808.4980599999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>327.6756399999999</v>
+        <v>769.37556</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>361.5528</v>
+        <v>385.75826</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>108.52993</v>
+        <v>3523.248000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>179.17862</v>
+        <v>1290.28278</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>151.4433</v>
+        <v>262.38957</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>78.19599000000001</v>
+        <v>113.89103</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>17.21223</v>
+        <v>59.87316000000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>670.00688</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1313.34984</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>824.155</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>6236.77262</v>
+        <v>18955.75435</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>8172.27608</v>
+        <v>36708.71994</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7962.48086</v>
+        <v>17320.60896</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7671.713519999999</v>
+        <v>38623.17508</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8824.493480000001</v>
+        <v>32840.16052</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>13324.39542</v>
+        <v>31606.23558</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10676.23141</v>
+        <v>42533.90783999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>10282.89594</v>
+        <v>61449.43275999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>11325.22739</v>
+        <v>133163.86994</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>33073.19291</v>
+        <v>68537.08721</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>38166.81451</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>92246.39015000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>123444.321</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8614.748150000001</v>
+        <v>17843.24921</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6821.70296</v>
+        <v>13240.28494</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>31813.42406</v>
+        <v>42552.75624</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7117.39345</v>
+        <v>17145.46604</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10426.59517</v>
+        <v>19882.34628</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>21627.76092</v>
+        <v>37339.35116</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16833.33301</v>
+        <v>47214.79715</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>24889.72846999999</v>
+        <v>54932.58330999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>14073.29086</v>
+        <v>36604.99689999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>58062.91363</v>
+        <v>90594.12470999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>35795.74933000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>79931.97997999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>84635.72900000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>588.31288</v>
+        <v>2151.08028</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>345.16248</v>
+        <v>1404.91224</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>593.3318999999999</v>
+        <v>1883.17503</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>305.11247</v>
+        <v>1020.51543</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>269.92509</v>
+        <v>1831.03348</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>552.06134</v>
+        <v>2408.2642</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>668.09011</v>
+        <v>3488.13377</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>591.32655</v>
+        <v>5316.88225</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>468.6738100000001</v>
+        <v>5307.05046</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1299.25106</v>
+        <v>4210.71617</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1433.76722</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5170.56334</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4835.489</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>605.2856399999999</v>
+        <v>700.8276</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>620.1140600000001</v>
+        <v>768.02526</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1546.91139</v>
+        <v>1634.44619</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>547.2311399999999</v>
+        <v>965.25548</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1148.66618</v>
+        <v>1412.37961</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1488.20999</v>
+        <v>1816.41259</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>756.9630699999999</v>
+        <v>1525.8387</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>799.2592100000001</v>
+        <v>1653.82573</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>571.6457699999999</v>
+        <v>909.0636499999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1633.77089</v>
+        <v>1931.05142</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1647.68038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3851.29971</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6715.566</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>7421.149630000001</v>
+        <v>14991.34133</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5856.426419999999</v>
+        <v>11067.34744</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>29673.18077000001</v>
+        <v>39035.13501999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6265.049840000001</v>
+        <v>15159.69513</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9008.003899999998</v>
+        <v>16638.93319</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>19587.48959</v>
+        <v>33114.67437000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>15408.27983</v>
+        <v>42200.82467999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>23499.14270999999</v>
+        <v>47961.87533</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>13032.97128</v>
+        <v>30388.88279</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>55129.89168</v>
+        <v>84452.35711999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>32714.30173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>70910.11692999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>73084.674</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-5103.36598</v>
+        <v>-10937.17497</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-4170.128299999999</v>
+        <v>5584.402249999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-32340.78649</v>
+        <v>-70116.22347999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-16584.52283</v>
+        <v>-37812.34054999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-16291.17756</v>
+        <v>-43092.98414</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-18160.80812</v>
+        <v>-55739.04598</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-24896.94068</v>
+        <v>-53016.74286999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-51402.32914</v>
+        <v>-75784.34123000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-5606.624319999999</v>
+        <v>44022.69642999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-79509.64995000002</v>
+        <v>-85999.20455999998</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-71840.42859000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>22729.80089999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-128103.669</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3700.04122</v>
+        <v>4595.897720000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4329.89435</v>
+        <v>8505.29494</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4301.889939999999</v>
+        <v>5969.42516</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3619.50084</v>
+        <v>5838.432239999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4898.99769</v>
+        <v>7624.47335</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4612.516479999999</v>
+        <v>8328.47069</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4406.14888</v>
+        <v>8692.00201</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4034.93139</v>
+        <v>9639.17676</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4079.68617</v>
+        <v>13748.14667</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13499.50479</v>
+        <v>22913.11543</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>15046.58709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>27859.08072</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>32106.819</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-8803.4072</v>
+        <v>-15533.07269</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-8500.022649999999</v>
+        <v>-2920.892690000002</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-36642.67643</v>
+        <v>-76085.64864</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-20204.02367</v>
+        <v>-43650.77279000002</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-21190.17525</v>
+        <v>-50717.45749000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-22773.3246</v>
+        <v>-64067.51667</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-29303.08956</v>
+        <v>-61708.74488</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-55437.26052999999</v>
+        <v>-85423.51799000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-9686.310490000002</v>
+        <v>30274.54975999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-93009.15474</v>
+        <v>-108912.31999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-86887.01568000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-5129.279820000006</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-160210.488</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>4337</v>
+        <v>4696</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5175</v>
+        <v>5709</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5260</v>
+        <v>5947</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5056</v>
+        <v>5847</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5138</v>
+        <v>6086</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4966</v>
+        <v>6166</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5164</v>
+        <v>6557</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5610</v>
+        <v>7223</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>5781</v>
+        <v>7479</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7414</v>
+        <v>8517</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>9069</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10315</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>